--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengcheng/Desktop/FYP/Improvement-to-Naive-Bayes-Classifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEF8BCD-7763-B14B-91ED-97A2F27799BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C99645D-99FF-D640-A38A-0E4A4F4864B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C62220F6-D869-944C-BA84-A28CF5D1FDE6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{C62220F6-D869-944C-BA84-A28CF5D1FDE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Dataset</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>adult.csv</t>
+  </si>
+  <si>
+    <t>(searched by simulated annealing algorithm)</t>
+  </si>
+  <si>
+    <t>heart.csv</t>
+  </si>
+  <si>
+    <t>Clustered comonotonicity</t>
   </si>
 </sst>
 </file>
@@ -408,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D172D3F1-1305-1D49-8DB9-5F4844304FAE}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,9 +430,10 @@
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,10 +447,13 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -454,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -468,9 +481,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.78437754271765603</v>
+      </c>
+      <c r="C4">
+        <v>0.75866558177379895</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.86885245901639296</v>
+      </c>
+      <c r="C5">
+        <v>0.52459016393442603</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengcheng/Desktop/FYP/Improvement-to-Naive-Bayes-Classifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C99645D-99FF-D640-A38A-0E4A4F4864B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CEF1CA-C051-0649-B55C-EA30613F8216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{C62220F6-D869-944C-BA84-A28CF5D1FDE6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C62220F6-D869-944C-BA84-A28CF5D1FDE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Dataset</t>
   </si>
@@ -47,9 +47,6 @@
     <t>glass.csv</t>
   </si>
   <si>
-    <t>Num of categories for continuous variables</t>
-  </si>
-  <si>
     <t>Weighted avg of Naïve Bayes &amp; Comonotonicity</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>adult.csv</t>
-  </si>
-  <si>
-    <t>(searched by simulated annealing algorithm)</t>
   </si>
   <si>
     <t>heart.csv</t>
@@ -420,7 +414,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,9 +422,9 @@
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="40.5" customWidth="1"/>
-    <col min="6" max="6" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -443,14 +437,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -463,50 +454,44 @@
       <c r="C2">
         <v>0.62790697674418605</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.93826815642458095</v>
       </c>
       <c r="C3">
         <v>0.92011173184357498</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.78437754271765603</v>
+        <v>0.81741253051261098</v>
       </c>
       <c r="C4">
-        <v>0.75866558177379895</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>0.45598047192839702</v>
+      </c>
+      <c r="E4">
+        <v>0.812042310821806</v>
+      </c>
+      <c r="F4">
+        <v>0.83970707892595597</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.86885245901639296</v>
       </c>
       <c r="C5">
         <v>0.52459016393442603</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengcheng/Desktop/FYP/Improvement-to-Naive-Bayes-Classifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CEF1CA-C051-0649-B55C-EA30613F8216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F435CBA-ECDC-E240-BE2C-457AB86B7734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C62220F6-D869-944C-BA84-A28CF5D1FDE6}"/>
   </bookViews>
@@ -33,33 +33,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="10">
   <si>
-    <t>Dataset</t>
+    <t>accuracy</t>
   </si>
   <si>
-    <t>Naïve Bayes Accuracy</t>
+    <t>train_proportion</t>
   </si>
   <si>
-    <t>Pure Comonotonic Accuracy</t>
+    <t>model</t>
   </si>
   <si>
-    <t>glass.csv</t>
+    <t>dataset</t>
   </si>
   <si>
-    <t>Weighted avg of Naïve Bayes &amp; Comonotonicity</t>
+    <t>MNIST</t>
   </si>
   <si>
-    <t>pulsar_stars.csv</t>
+    <t>naïve bayes</t>
   </si>
   <si>
-    <t>adult.csv</t>
+    <t>clustered comonotonic</t>
   </si>
   <si>
-    <t>heart.csv</t>
+    <t>Adult Census Income</t>
   </si>
   <si>
-    <t>Clustered comonotonicity</t>
+    <t>Aggregate Comonotonic</t>
+  </si>
+  <si>
+    <t>Clustered Comonotonic</t>
   </si>
 </sst>
 </file>
@@ -411,87 +414,664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D172D3F1-1305-1D49-8DB9-5F4844304FAE}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="38.5" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.602301587301587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.55579591836734699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <v>0.55111904761904695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.54974285714285698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>0.55153571428571402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.7</v>
+      </c>
+      <c r="D8">
+        <v>0.55097376315413504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+      <c r="D9">
+        <v>0.55157142857142805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0.9</v>
+      </c>
+      <c r="D10">
+        <v>0.56342857142857095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>0.83701587301587299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <v>0.83741071428571401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>0.83736734693877501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0.4</v>
+      </c>
+      <c r="D14">
+        <v>0.83676190476190404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>0.83891428571428495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0.6</v>
+      </c>
+      <c r="D16">
+        <v>0.83810714285714205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0.7</v>
+      </c>
+      <c r="D17">
+        <v>0.83824579781915098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
+      <c r="D19">
+        <v>0.84085714285714197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>0.78496762759069705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>0.78384537131230902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0.3</v>
+      </c>
+      <c r="D22">
+        <v>0.78686694879784203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0.4</v>
+      </c>
+      <c r="D23">
+        <v>0.78465628560577205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>0.78859300735724902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0.6</v>
+      </c>
+      <c r="D25">
+        <v>0.78889973958333304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0.7</v>
+      </c>
+      <c r="D26">
+        <v>0.79036458333333304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+      <c r="D27">
+        <v>0.78824869791666596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.9</v>
+      </c>
+      <c r="D28">
+        <v>0.78743489583333304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.55813953488372003</v>
-      </c>
-      <c r="C2">
-        <v>0.62790697674418605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.93826815642458095</v>
-      </c>
-      <c r="C3">
-        <v>0.92011173184357498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.81741253051261098</v>
-      </c>
-      <c r="C4">
-        <v>0.45598047192839702</v>
-      </c>
-      <c r="E4">
-        <v>0.812042310821806</v>
-      </c>
-      <c r="F4">
-        <v>0.83970707892595597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.86885245901639296</v>
-      </c>
-      <c r="C5">
-        <v>0.52459016393442603</v>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>0.75389734871776304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0.2</v>
+      </c>
+      <c r="D30">
+        <v>0.75438453713122999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0.3</v>
+      </c>
+      <c r="D31">
+        <v>0.75863832953541299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0.4</v>
+      </c>
+      <c r="D32">
+        <v>0.75752807769518704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>0.75597369620417998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+      <c r="D34">
+        <v>0.75830078125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0.7</v>
+      </c>
+      <c r="D35">
+        <v>0.7568359375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0.8</v>
+      </c>
+      <c r="D36">
+        <v>0.75716145833333304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0.9</v>
+      </c>
+      <c r="D37">
+        <v>0.78743489583333304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>0.1</v>
+      </c>
+      <c r="D38">
+        <v>0.820523022389409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>0.2</v>
+      </c>
+      <c r="D39">
+        <v>0.82376398779247195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>0.3</v>
+      </c>
+      <c r="D40">
+        <v>0.82318746221457395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>0.4</v>
+      </c>
+      <c r="D41">
+        <v>0.82296131517551896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42">
+        <v>0.821668077348785</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>0.6</v>
+      </c>
+      <c r="D43">
+        <v>0.8232421875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>0.7</v>
+      </c>
+      <c r="D44">
+        <v>0.8232421875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>0.8</v>
+      </c>
+      <c r="D45">
+        <v>0.82649739583333304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>0.9</v>
+      </c>
+      <c r="D46">
+        <v>0.828125</v>
       </c>
     </row>
   </sheetData>
